--- a/teams-data.xlsx
+++ b/teams-data.xlsx
@@ -615,10 +615,8 @@
       <c r="T2" t="n">
         <v>-5.8</v>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -691,10 +689,8 @@
       <c r="T3" t="n">
         <v>-5</v>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -772,9 +768,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -852,9 +847,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -927,10 +921,8 @@
       <c r="T6" t="n">
         <v>-26.9</v>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1008,9 +1000,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1083,10 +1074,8 @@
       <c r="T8" t="n">
         <v>-25.2</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1164,9 +1153,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1239,10 +1227,8 @@
       <c r="T10" t="n">
         <v>17.1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1315,10 +1301,8 @@
       <c r="T11" t="n">
         <v>-9</v>
       </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1391,10 +1375,8 @@
       <c r="T12" t="n">
         <v>-12.1</v>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1472,9 +1454,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1547,10 +1528,8 @@
       <c r="T14" t="n">
         <v>-5.8</v>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -1628,9 +1607,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -1703,10 +1681,8 @@
       <c r="T16" t="n">
         <v>-18</v>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -1784,9 +1760,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -1859,10 +1834,8 @@
       <c r="T18" t="n">
         <v>-6.7</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -1940,9 +1913,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2015,10 +1987,8 @@
       <c r="T20" t="n">
         <v>-11</v>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2091,10 +2061,8 @@
       <c r="T21" t="n">
         <v>-36.7</v>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2167,10 +2135,8 @@
       <c r="T22" t="n">
         <v>15.4</v>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -2248,9 +2214,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -2323,10 +2288,8 @@
       <c r="T24" t="n">
         <v>29.9</v>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -2399,10 +2362,8 @@
       <c r="T25" t="n">
         <v>-17.5</v>
       </c>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -2475,10 +2436,8 @@
       <c r="T26" t="n">
         <v>-15.8</v>
       </c>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -2551,10 +2510,8 @@
       <c r="T27" t="n">
         <v>6.5</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -2632,9 +2589,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -2712,9 +2668,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -2787,10 +2742,8 @@
       <c r="T30" t="n">
         <v>27.9</v>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -2872,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -2950,9 +2903,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -2969,7 +2921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2998,41 +2950,13 @@
       <c r="K33" t="n">
         <v>-1.2</v>
       </c>
-      <c r="L33" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="M33" t="n">
-        <v>16</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-21.8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>32</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-18.3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>15</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-25.7</v>
-      </c>
       <c r="U33" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3105,10 +3029,8 @@
       <c r="T34" t="n">
         <v>-40.4</v>
       </c>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -3181,10 +3103,8 @@
       <c r="T35" t="n">
         <v>-3</v>
       </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -3262,9 +3182,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -3342,9 +3261,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -3417,10 +3335,8 @@
       <c r="T38" t="n">
         <v>0.5</v>
       </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -3493,10 +3409,8 @@
       <c r="T39" t="n">
         <v>19</v>
       </c>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -3569,10 +3483,8 @@
       <c r="T40" t="n">
         <v>-9.699999999999999</v>
       </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -3645,10 +3557,8 @@
       <c r="T41" t="n">
         <v>-3</v>
       </c>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -3721,10 +3631,8 @@
       <c r="T42" t="n">
         <v>-5.2</v>
       </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -3797,10 +3705,8 @@
       <c r="T43" t="n">
         <v>6.6</v>
       </c>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -3873,10 +3779,8 @@
       <c r="T44" t="n">
         <v>-15.2</v>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -3954,9 +3858,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4034,9 +3937,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -4109,10 +4011,8 @@
       <c r="T47" t="n">
         <v>12.6</v>
       </c>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -4185,10 +4085,8 @@
       <c r="T48" t="n">
         <v>-8.1</v>
       </c>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -4270,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -4343,10 +4241,8 @@
       <c r="T50" t="n">
         <v>22.7</v>
       </c>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -4419,10 +4315,8 @@
       <c r="T51" t="n">
         <v>23.7</v>
       </c>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -4495,10 +4389,8 @@
       <c r="T52" t="n">
         <v>-21</v>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -4571,10 +4463,8 @@
       <c r="T53" t="n">
         <v>-16.5</v>
       </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -4652,9 +4542,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr"/>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -4732,9 +4621,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -4812,9 +4700,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -4887,10 +4774,8 @@
       <c r="T57" t="n">
         <v>0</v>
       </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -4963,10 +4848,8 @@
       <c r="T58" t="n">
         <v>-14.8</v>
       </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -5044,9 +4927,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V59" t="inlineStr"/>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -5119,10 +5001,8 @@
       <c r="T60" t="n">
         <v>11.2</v>
       </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -5200,9 +5080,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V61" t="inlineStr"/>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -5280,9 +5159,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr"/>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -5355,10 +5233,8 @@
       <c r="T63" t="n">
         <v>-13</v>
       </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -5436,9 +5312,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -5455,7 +5330,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5484,37 +5359,8 @@
       <c r="K65" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L65" t="n">
-        <v>-25.7</v>
-      </c>
-      <c r="M65" t="n">
-        <v>30</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="O65" t="n">
-        <v>30</v>
-      </c>
-      <c r="P65" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>24</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S65" t="n">
-        <v>6</v>
-      </c>
-      <c r="T65" t="n">
-        <v>-18.6</v>
-      </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -5587,10 +5433,8 @@
       <c r="T66" t="n">
         <v>-11.2</v>
       </c>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -5663,10 +5507,8 @@
       <c r="T67" t="n">
         <v>1.5</v>
       </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -5744,9 +5586,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr"/>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -5819,10 +5660,8 @@
       <c r="T69" t="n">
         <v>-9.800000000000001</v>
       </c>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -5895,10 +5734,8 @@
       <c r="T70" t="n">
         <v>13</v>
       </c>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -5976,9 +5813,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -6051,10 +5887,8 @@
       <c r="T72" t="n">
         <v>-12.5</v>
       </c>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -6127,10 +5961,8 @@
       <c r="T73" t="n">
         <v>-27.2</v>
       </c>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -6208,9 +6040,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr"/>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -6283,10 +6114,8 @@
       <c r="T75" t="n">
         <v>-20.9</v>
       </c>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -6359,10 +6188,8 @@
       <c r="T76" t="n">
         <v>5.6</v>
       </c>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -6435,10 +6262,8 @@
       <c r="T77" t="n">
         <v>-3.3</v>
       </c>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -6516,9 +6341,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr"/>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -6596,9 +6420,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V79" t="inlineStr"/>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -6671,10 +6494,8 @@
       <c r="T80" t="n">
         <v>13.1</v>
       </c>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -6752,9 +6573,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr"/>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -6832,9 +6652,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr"/>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -6912,9 +6731,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr"/>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -6987,10 +6805,8 @@
       <c r="T84" t="n">
         <v>-6.6</v>
       </c>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -7063,10 +6879,8 @@
       <c r="T85" t="n">
         <v>-19.8</v>
       </c>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -7139,10 +6953,8 @@
       <c r="T86" t="n">
         <v>25.1</v>
       </c>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -7220,9 +7032,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr"/>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -7304,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -7377,10 +7188,8 @@
       <c r="T89" t="n">
         <v>-22.2</v>
       </c>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -7453,10 +7262,8 @@
       <c r="T90" t="n">
         <v>-17.3</v>
       </c>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -7534,9 +7341,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V91" t="inlineStr"/>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -7609,10 +7415,8 @@
       <c r="T92" t="n">
         <v>27.1</v>
       </c>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -7690,9 +7494,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V93" t="inlineStr"/>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -7765,10 +7568,8 @@
       <c r="T94" t="n">
         <v>-8.300000000000001</v>
       </c>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -7841,10 +7642,8 @@
       <c r="T95" t="n">
         <v>-11.9</v>
       </c>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -7917,10 +7716,8 @@
       <c r="T96" t="n">
         <v>-5.6</v>
       </c>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -7937,7 +7734,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -7966,37 +7763,8 @@
       <c r="K97" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L97" t="n">
-        <v>-18.6</v>
-      </c>
-      <c r="M97" t="n">
-        <v>29</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-19.4</v>
-      </c>
-      <c r="O97" t="n">
-        <v>28</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>20</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S97" t="n">
-        <v>8</v>
-      </c>
-      <c r="T97" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -8069,10 +7837,8 @@
       <c r="T98" t="n">
         <v>1.7</v>
       </c>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -8150,9 +7916,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V99" t="inlineStr"/>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -8225,10 +7990,8 @@
       <c r="T100" t="n">
         <v>5.9</v>
       </c>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -8306,9 +8069,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V101" t="inlineStr"/>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -8386,9 +8148,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V102" t="inlineStr"/>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X102" t="inlineStr">
         <is>
@@ -8461,10 +8222,8 @@
       <c r="T103" t="n">
         <v>-7.9</v>
       </c>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X103" t="inlineStr">
         <is>
@@ -8537,10 +8296,8 @@
       <c r="T104" t="n">
         <v>3</v>
       </c>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X104" t="inlineStr">
         <is>
@@ -8613,10 +8370,8 @@
       <c r="T105" t="n">
         <v>-30.9</v>
       </c>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X105" t="inlineStr">
         <is>
@@ -8689,10 +8444,8 @@
       <c r="T106" t="n">
         <v>21</v>
       </c>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X106" t="inlineStr">
         <is>
@@ -8765,10 +8518,8 @@
       <c r="T107" t="n">
         <v>3.8</v>
       </c>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X107" t="inlineStr">
         <is>
@@ -8841,10 +8592,8 @@
       <c r="T108" t="n">
         <v>-17.6</v>
       </c>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X108" t="inlineStr">
         <is>
@@ -8917,10 +8666,8 @@
       <c r="T109" t="n">
         <v>12.1</v>
       </c>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X109" t="inlineStr">
         <is>
@@ -8993,10 +8740,8 @@
       <c r="T110" t="n">
         <v>-21.4</v>
       </c>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110" t="inlineStr">
         <is>
@@ -9069,10 +8814,8 @@
       <c r="T111" t="n">
         <v>-5.1</v>
       </c>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X111" t="inlineStr">
         <is>
@@ -9150,9 +8893,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V112" t="inlineStr"/>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112" t="inlineStr">
         <is>
@@ -9230,9 +8972,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V113" t="inlineStr"/>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X113" t="inlineStr">
         <is>
@@ -9305,10 +9046,8 @@
       <c r="T114" t="n">
         <v>-1</v>
       </c>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X114" t="inlineStr">
         <is>
@@ -9386,9 +9125,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V115" t="inlineStr"/>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X115" t="inlineStr">
         <is>
@@ -9461,10 +9199,8 @@
       <c r="T116" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X116" t="inlineStr">
         <is>
@@ -9537,10 +9273,8 @@
       <c r="T117" t="n">
         <v>0.3</v>
       </c>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X117" t="inlineStr">
         <is>
@@ -9618,9 +9352,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V118" t="inlineStr"/>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X118" t="inlineStr">
         <is>
@@ -9698,9 +9431,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V119" t="inlineStr"/>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X119" t="inlineStr">
         <is>
@@ -9778,9 +9510,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V120" t="inlineStr"/>
       <c r="W120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X120" t="inlineStr">
         <is>
@@ -9853,10 +9584,8 @@
       <c r="T121" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X121" t="inlineStr">
         <is>
@@ -9929,10 +9658,8 @@
       <c r="T122" t="n">
         <v>-32.4</v>
       </c>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X122" t="inlineStr">
         <is>
@@ -10014,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X123" t="inlineStr">
         <is>
@@ -10092,9 +9819,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V124" t="inlineStr"/>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" t="inlineStr">
         <is>
@@ -10167,10 +9893,8 @@
       <c r="T125" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X125" t="inlineStr">
         <is>
@@ -10243,10 +9967,8 @@
       <c r="T126" t="n">
         <v>-19.7</v>
       </c>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X126" t="inlineStr">
         <is>
@@ -10319,10 +10041,8 @@
       <c r="T127" t="n">
         <v>-1.6</v>
       </c>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127" t="inlineStr">
         <is>
@@ -10400,9 +10120,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V128" t="inlineStr"/>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X128" t="inlineStr">
         <is>
@@ -10419,7 +10138,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -10448,37 +10167,8 @@
       <c r="K129" t="n">
         <v>1.6</v>
       </c>
-      <c r="L129" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="M129" t="n">
-        <v>16</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-3</v>
-      </c>
-      <c r="O129" t="n">
-        <v>20</v>
-      </c>
-      <c r="P129" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>11</v>
-      </c>
-      <c r="R129" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="S129" t="n">
-        <v>22</v>
-      </c>
-      <c r="T129" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
       <c r="W129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X129" t="inlineStr">
         <is>
@@ -10551,10 +10241,8 @@
       <c r="T130" t="n">
         <v>27.4</v>
       </c>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130" t="inlineStr">
         <is>
@@ -10632,9 +10320,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V131" t="inlineStr"/>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X131" t="inlineStr">
         <is>
@@ -10707,10 +10394,8 @@
       <c r="T132" t="n">
         <v>-3</v>
       </c>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X132" t="inlineStr">
         <is>
@@ -10783,10 +10468,8 @@
       <c r="T133" t="n">
         <v>2.7</v>
       </c>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X133" t="inlineStr">
         <is>
@@ -10859,10 +10542,8 @@
       <c r="T134" t="n">
         <v>25.9</v>
       </c>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X134" t="inlineStr">
         <is>
@@ -10935,10 +10616,8 @@
       <c r="T135" t="n">
         <v>-5.7</v>
       </c>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
       <c r="W135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X135" t="inlineStr">
         <is>
@@ -11011,10 +10690,8 @@
       <c r="T136" t="n">
         <v>27.9</v>
       </c>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X136" t="inlineStr">
         <is>
@@ -11087,10 +10764,8 @@
       <c r="T137" t="n">
         <v>-23</v>
       </c>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
       <c r="W137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X137" t="inlineStr">
         <is>
@@ -11168,9 +10843,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V138" t="inlineStr"/>
       <c r="W138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X138" t="inlineStr">
         <is>
@@ -11243,10 +10917,8 @@
       <c r="T139" t="n">
         <v>17.7</v>
       </c>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139" t="inlineStr">
         <is>
@@ -11324,9 +10996,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V140" t="inlineStr"/>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X140" t="inlineStr">
         <is>
@@ -11404,9 +11075,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V141" t="inlineStr"/>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141" t="inlineStr">
         <is>
@@ -11484,9 +11154,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V142" t="inlineStr"/>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X142" t="inlineStr">
         <is>
@@ -11559,10 +11228,8 @@
       <c r="T143" t="n">
         <v>-12.9</v>
       </c>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
       <c r="W143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X143" t="inlineStr">
         <is>
@@ -11635,10 +11302,8 @@
       <c r="T144" t="n">
         <v>-16</v>
       </c>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
       <c r="W144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X144" t="inlineStr">
         <is>
@@ -11716,9 +11381,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V145" t="inlineStr"/>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X145" t="inlineStr">
         <is>
@@ -11791,10 +11455,8 @@
       <c r="T146" t="n">
         <v>-14.8</v>
       </c>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
       <c r="W146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X146" t="inlineStr">
         <is>
@@ -11867,10 +11529,8 @@
       <c r="T147" t="n">
         <v>-2.2</v>
       </c>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
       <c r="W147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X147" t="inlineStr">
         <is>
@@ -11948,9 +11608,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V148" t="inlineStr"/>
       <c r="W148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X148" t="inlineStr">
         <is>
@@ -12028,9 +11687,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V149" t="inlineStr"/>
       <c r="W149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X149" t="inlineStr">
         <is>
@@ -12103,10 +11761,8 @@
       <c r="T150" t="n">
         <v>5.7</v>
       </c>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
       <c r="W150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X150" t="inlineStr">
         <is>
@@ -12179,10 +11835,8 @@
       <c r="T151" t="n">
         <v>-18.7</v>
       </c>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
       <c r="W151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X151" t="inlineStr">
         <is>
@@ -12264,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152" t="inlineStr">
         <is>
@@ -12342,9 +11996,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V153" t="inlineStr"/>
       <c r="W153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X153" t="inlineStr">
         <is>
@@ -12417,10 +12070,8 @@
       <c r="T154" t="n">
         <v>12.4</v>
       </c>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
       <c r="W154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X154" t="inlineStr">
         <is>
@@ -12493,10 +12144,8 @@
       <c r="T155" t="n">
         <v>-11.2</v>
       </c>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
       <c r="W155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X155" t="inlineStr">
         <is>
@@ -12574,9 +12223,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V156" t="inlineStr"/>
       <c r="W156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X156" t="inlineStr">
         <is>
@@ -12654,9 +12302,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V157" t="inlineStr"/>
       <c r="W157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X157" t="inlineStr">
         <is>
@@ -12729,10 +12376,8 @@
       <c r="T158" t="n">
         <v>-27.4</v>
       </c>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X158" t="inlineStr">
         <is>
@@ -12805,10 +12450,8 @@
       <c r="T159" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
       <c r="W159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159" t="inlineStr">
         <is>
@@ -12881,10 +12524,8 @@
       <c r="T160" t="n">
         <v>-26.5</v>
       </c>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
       <c r="W160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X160" t="inlineStr">
         <is>
@@ -12901,7 +12542,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -12930,37 +12571,8 @@
       <c r="K161" t="n">
         <v>1.2</v>
       </c>
-      <c r="L161" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M161" t="n">
-        <v>8</v>
-      </c>
-      <c r="N161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="O161" t="n">
-        <v>5</v>
-      </c>
-      <c r="P161" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>25</v>
-      </c>
-      <c r="R161" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S161" t="n">
-        <v>14</v>
-      </c>
-      <c r="T161" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
       <c r="W161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X161" t="inlineStr">
         <is>
@@ -13038,9 +12650,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V162" t="inlineStr"/>
       <c r="W162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X162" t="inlineStr">
         <is>
@@ -13113,10 +12724,8 @@
       <c r="T163" t="n">
         <v>-5</v>
       </c>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
       <c r="W163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X163" t="inlineStr">
         <is>
@@ -13189,10 +12798,8 @@
       <c r="T164" t="n">
         <v>22.2</v>
       </c>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
       <c r="W164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164" t="inlineStr">
         <is>
@@ -13265,10 +12872,8 @@
       <c r="T165" t="n">
         <v>10.6</v>
       </c>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
       <c r="W165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X165" t="inlineStr">
         <is>
@@ -13346,9 +12951,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V166" t="inlineStr"/>
       <c r="W166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X166" t="inlineStr">
         <is>
@@ -13421,10 +13025,8 @@
       <c r="T167" t="n">
         <v>-14</v>
       </c>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
       <c r="W167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X167" t="inlineStr">
         <is>
@@ -13502,9 +13104,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V168" t="inlineStr"/>
       <c r="W168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X168" t="inlineStr">
         <is>
@@ -13577,10 +13178,8 @@
       <c r="T169" t="n">
         <v>-6.9</v>
       </c>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
       <c r="W169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X169" t="inlineStr">
         <is>
@@ -13653,10 +13252,8 @@
       <c r="T170" t="n">
         <v>13.8</v>
       </c>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
       <c r="W170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X170" t="inlineStr">
         <is>
@@ -13738,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="W171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X171" t="inlineStr">
         <is>
@@ -13811,10 +13408,8 @@
       <c r="T172" t="n">
         <v>4.4</v>
       </c>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
       <c r="W172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X172" t="inlineStr">
         <is>
@@ -13892,9 +13487,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V173" t="inlineStr"/>
       <c r="W173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X173" t="inlineStr">
         <is>
@@ -13972,9 +13566,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V174" t="inlineStr"/>
       <c r="W174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X174" t="inlineStr">
         <is>
@@ -14047,10 +13640,8 @@
       <c r="T175" t="n">
         <v>4.7</v>
       </c>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
       <c r="W175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X175" t="inlineStr">
         <is>
@@ -14123,10 +13714,8 @@
       <c r="T176" t="n">
         <v>-29.5</v>
       </c>
-      <c r="U176" t="inlineStr"/>
-      <c r="V176" t="inlineStr"/>
       <c r="W176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X176" t="inlineStr">
         <is>
@@ -14204,9 +13793,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V177" t="inlineStr"/>
       <c r="W177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X177" t="inlineStr">
         <is>
@@ -14279,10 +13867,8 @@
       <c r="T178" t="n">
         <v>0</v>
       </c>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
       <c r="W178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X178" t="inlineStr">
         <is>
@@ -14355,10 +13941,8 @@
       <c r="T179" t="n">
         <v>-4.4</v>
       </c>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
       <c r="W179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X179" t="inlineStr">
         <is>
@@ -14431,10 +14015,8 @@
       <c r="T180" t="n">
         <v>-27</v>
       </c>
-      <c r="U180" t="inlineStr"/>
-      <c r="V180" t="inlineStr"/>
       <c r="W180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X180" t="inlineStr">
         <is>
@@ -14507,10 +14089,8 @@
       <c r="T181" t="n">
         <v>3.4</v>
       </c>
-      <c r="U181" t="inlineStr"/>
-      <c r="V181" t="inlineStr"/>
       <c r="W181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X181" t="inlineStr">
         <is>
@@ -14588,9 +14168,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V182" t="inlineStr"/>
       <c r="W182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X182" t="inlineStr">
         <is>
@@ -14663,10 +14242,8 @@
       <c r="T183" t="n">
         <v>-1.4</v>
       </c>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
       <c r="W183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X183" t="inlineStr">
         <is>
@@ -14744,9 +14321,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V184" t="inlineStr"/>
       <c r="W184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
@@ -14819,10 +14395,8 @@
       <c r="T185" t="n">
         <v>-5.9</v>
       </c>
-      <c r="U185" t="inlineStr"/>
-      <c r="V185" t="inlineStr"/>
       <c r="W185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X185" t="inlineStr">
         <is>
@@ -14895,10 +14469,8 @@
       <c r="T186" t="n">
         <v>-14.9</v>
       </c>
-      <c r="U186" t="inlineStr"/>
-      <c r="V186" t="inlineStr"/>
       <c r="W186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X186" t="inlineStr">
         <is>
@@ -14971,10 +14543,8 @@
       <c r="T187" t="n">
         <v>12.8</v>
       </c>
-      <c r="U187" t="inlineStr"/>
-      <c r="V187" t="inlineStr"/>
       <c r="W187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X187" t="inlineStr">
         <is>
@@ -15052,9 +14622,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V188" t="inlineStr"/>
       <c r="W188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X188" t="inlineStr">
         <is>
@@ -15132,9 +14701,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V189" t="inlineStr"/>
       <c r="W189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X189" t="inlineStr">
         <is>
@@ -15207,10 +14775,8 @@
       <c r="T190" t="n">
         <v>6.6</v>
       </c>
-      <c r="U190" t="inlineStr"/>
-      <c r="V190" t="inlineStr"/>
       <c r="W190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X190" t="inlineStr">
         <is>
@@ -15283,10 +14849,8 @@
       <c r="T191" t="n">
         <v>-28.4</v>
       </c>
-      <c r="U191" t="inlineStr"/>
-      <c r="V191" t="inlineStr"/>
       <c r="W191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X191" t="inlineStr">
         <is>
@@ -15359,10 +14923,8 @@
       <c r="T192" t="n">
         <v>-29.3</v>
       </c>
-      <c r="U192" t="inlineStr"/>
-      <c r="V192" t="inlineStr"/>
       <c r="W192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X192" t="inlineStr">
         <is>
@@ -15379,7 +14941,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -15408,41 +14970,13 @@
       <c r="K193" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L193" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="M193" t="n">
-        <v>15</v>
-      </c>
-      <c r="N193" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O193" t="n">
-        <v>12</v>
-      </c>
-      <c r="P193" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q193" t="n">
-        <v>21</v>
-      </c>
-      <c r="R193" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="S193" t="n">
-        <v>6</v>
-      </c>
-      <c r="T193" t="n">
-        <v>-26.7</v>
-      </c>
       <c r="U193" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V193" t="inlineStr"/>
       <c r="W193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X193" t="inlineStr">
         <is>
@@ -15520,9 +15054,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V194" t="inlineStr"/>
       <c r="W194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X194" t="inlineStr">
         <is>
@@ -15595,10 +15128,8 @@
       <c r="T195" t="n">
         <v>-10.4</v>
       </c>
-      <c r="U195" t="inlineStr"/>
-      <c r="V195" t="inlineStr"/>
       <c r="W195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X195" t="inlineStr">
         <is>
@@ -15676,9 +15207,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X196" t="inlineStr">
         <is>
@@ -15751,10 +15281,8 @@
       <c r="T197" t="n">
         <v>-3.2</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
       <c r="W197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X197" t="inlineStr">
         <is>
@@ -15832,9 +15360,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V198" t="inlineStr"/>
       <c r="W198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X198" t="inlineStr">
         <is>
@@ -15907,10 +15434,8 @@
       <c r="T199" t="n">
         <v>7.2</v>
       </c>
-      <c r="U199" t="inlineStr"/>
-      <c r="V199" t="inlineStr"/>
       <c r="W199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X199" t="inlineStr">
         <is>
@@ -15988,9 +15513,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V200" t="inlineStr"/>
       <c r="W200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X200" t="inlineStr">
         <is>
@@ -16063,10 +15587,8 @@
       <c r="T201" t="n">
         <v>-21.6</v>
       </c>
-      <c r="U201" t="inlineStr"/>
-      <c r="V201" t="inlineStr"/>
       <c r="W201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X201" t="inlineStr">
         <is>
@@ -16144,9 +15666,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V202" t="inlineStr"/>
       <c r="W202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X202" t="inlineStr">
         <is>
@@ -16224,9 +15745,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V203" t="inlineStr"/>
       <c r="W203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X203" t="inlineStr">
         <is>
@@ -16304,9 +15824,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V204" t="inlineStr"/>
       <c r="W204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X204" t="inlineStr">
         <is>
@@ -16384,9 +15903,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V205" t="inlineStr"/>
       <c r="W205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X205" t="inlineStr">
         <is>
@@ -16459,10 +15977,8 @@
       <c r="T206" t="n">
         <v>-26.9</v>
       </c>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
       <c r="W206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X206" t="inlineStr">
         <is>
@@ -16540,9 +16056,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V207" t="inlineStr"/>
       <c r="W207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X207" t="inlineStr">
         <is>
@@ -16615,10 +16130,8 @@
       <c r="T208" t="n">
         <v>-38.2</v>
       </c>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
       <c r="W208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X208" t="inlineStr">
         <is>
@@ -16691,10 +16204,8 @@
       <c r="T209" t="n">
         <v>17.4</v>
       </c>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr"/>
       <c r="W209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X209" t="inlineStr">
         <is>
@@ -16767,10 +16278,8 @@
       <c r="T210" t="n">
         <v>5.8</v>
       </c>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr"/>
       <c r="W210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X210" t="inlineStr">
         <is>
@@ -16843,10 +16352,8 @@
       <c r="T211" t="n">
         <v>1.9</v>
       </c>
-      <c r="U211" t="inlineStr"/>
-      <c r="V211" t="inlineStr"/>
       <c r="W211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X211" t="inlineStr">
         <is>
@@ -16919,10 +16426,8 @@
       <c r="T212" t="n">
         <v>-34.2</v>
       </c>
-      <c r="U212" t="inlineStr"/>
-      <c r="V212" t="inlineStr"/>
       <c r="W212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X212" t="inlineStr">
         <is>
@@ -16995,10 +16500,8 @@
       <c r="T213" t="n">
         <v>-6.4</v>
       </c>
-      <c r="U213" t="inlineStr"/>
-      <c r="V213" t="inlineStr"/>
       <c r="W213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X213" t="inlineStr">
         <is>
@@ -17071,10 +16574,8 @@
       <c r="T214" t="n">
         <v>-11.2</v>
       </c>
-      <c r="U214" t="inlineStr"/>
-      <c r="V214" t="inlineStr"/>
       <c r="W214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X214" t="inlineStr">
         <is>
@@ -17147,10 +16648,8 @@
       <c r="T215" t="n">
         <v>19.3</v>
       </c>
-      <c r="U215" t="inlineStr"/>
-      <c r="V215" t="inlineStr"/>
       <c r="W215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X215" t="inlineStr">
         <is>
@@ -17232,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="W216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X216" t="inlineStr">
         <is>
@@ -17305,10 +16804,8 @@
       <c r="T217" t="n">
         <v>-15.8</v>
       </c>
-      <c r="U217" t="inlineStr"/>
-      <c r="V217" t="inlineStr"/>
       <c r="W217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X217" t="inlineStr">
         <is>
@@ -17381,10 +16878,8 @@
       <c r="T218" t="n">
         <v>-7.4</v>
       </c>
-      <c r="U218" t="inlineStr"/>
-      <c r="V218" t="inlineStr"/>
       <c r="W218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X218" t="inlineStr">
         <is>
@@ -17457,10 +16952,8 @@
       <c r="T219" t="n">
         <v>15.1</v>
       </c>
-      <c r="U219" t="inlineStr"/>
-      <c r="V219" t="inlineStr"/>
       <c r="W219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X219" t="inlineStr">
         <is>
@@ -17538,9 +17031,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V220" t="inlineStr"/>
       <c r="W220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X220" t="inlineStr">
         <is>
@@ -17618,9 +17110,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V221" t="inlineStr"/>
       <c r="W221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X221" t="inlineStr">
         <is>
@@ -17693,10 +17184,8 @@
       <c r="T222" t="n">
         <v>17.4</v>
       </c>
-      <c r="U222" t="inlineStr"/>
-      <c r="V222" t="inlineStr"/>
       <c r="W222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X222" t="inlineStr">
         <is>
@@ -17769,10 +17258,8 @@
       <c r="T223" t="n">
         <v>-4.9</v>
       </c>
-      <c r="U223" t="inlineStr"/>
-      <c r="V223" t="inlineStr"/>
       <c r="W223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X223" t="inlineStr">
         <is>
@@ -17845,10 +17332,8 @@
       <c r="T224" t="n">
         <v>-5.9</v>
       </c>
-      <c r="U224" t="inlineStr"/>
-      <c r="V224" t="inlineStr"/>
       <c r="W224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X224" t="inlineStr">
         <is>
@@ -17865,7 +17350,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -17894,37 +17379,8 @@
       <c r="K225" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L225" t="n">
-        <v>-26.7</v>
-      </c>
-      <c r="M225" t="n">
-        <v>28</v>
-      </c>
-      <c r="N225" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="O225" t="n">
-        <v>28</v>
-      </c>
-      <c r="P225" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>27</v>
-      </c>
-      <c r="R225" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="S225" t="n">
-        <v>29</v>
-      </c>
-      <c r="T225" t="n">
-        <v>-26.3</v>
-      </c>
-      <c r="U225" t="inlineStr"/>
-      <c r="V225" t="inlineStr"/>
       <c r="W225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X225" t="inlineStr">
         <is>
@@ -17997,10 +17453,8 @@
       <c r="T226" t="n">
         <v>-16.3</v>
       </c>
-      <c r="U226" t="inlineStr"/>
-      <c r="V226" t="inlineStr"/>
       <c r="W226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X226" t="inlineStr">
         <is>
@@ -18073,10 +17527,8 @@
       <c r="T227" t="n">
         <v>9.1</v>
       </c>
-      <c r="U227" t="inlineStr"/>
-      <c r="V227" t="inlineStr"/>
       <c r="W227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X227" t="inlineStr">
         <is>
@@ -18149,10 +17601,8 @@
       <c r="T228" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
       <c r="W228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X228" t="inlineStr">
         <is>
@@ -18225,10 +17675,8 @@
       <c r="T229" t="n">
         <v>-12.2</v>
       </c>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
       <c r="W229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X229" t="inlineStr">
         <is>
@@ -18306,9 +17754,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V230" t="inlineStr"/>
       <c r="W230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X230" t="inlineStr">
         <is>
@@ -18381,10 +17828,8 @@
       <c r="T231" t="n">
         <v>20.5</v>
       </c>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
       <c r="W231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X231" t="inlineStr">
         <is>
@@ -18462,9 +17907,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V232" t="inlineStr"/>
       <c r="W232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X232" t="inlineStr">
         <is>
@@ -18537,10 +17981,8 @@
       <c r="T233" t="n">
         <v>-13.5</v>
       </c>
-      <c r="U233" t="inlineStr"/>
-      <c r="V233" t="inlineStr"/>
       <c r="W233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X233" t="inlineStr">
         <is>
@@ -18613,10 +18055,8 @@
       <c r="T234" t="n">
         <v>-0.4</v>
       </c>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
       <c r="W234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X234" t="inlineStr">
         <is>
@@ -18694,9 +18134,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V235" t="inlineStr"/>
       <c r="W235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X235" t="inlineStr">
         <is>
@@ -18769,10 +18208,8 @@
       <c r="T236" t="n">
         <v>0.2</v>
       </c>
-      <c r="U236" t="inlineStr"/>
-      <c r="V236" t="inlineStr"/>
       <c r="W236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X236" t="inlineStr">
         <is>
@@ -18850,9 +18287,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V237" t="inlineStr"/>
       <c r="W237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X237" t="inlineStr">
         <is>
@@ -18925,10 +18361,8 @@
       <c r="T238" t="n">
         <v>6.6</v>
       </c>
-      <c r="U238" t="inlineStr"/>
-      <c r="V238" t="inlineStr"/>
       <c r="W238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X238" t="inlineStr">
         <is>
@@ -19006,9 +18440,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V239" t="inlineStr"/>
       <c r="W239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X239" t="inlineStr">
         <is>
@@ -19081,10 +18514,8 @@
       <c r="T240" t="n">
         <v>-33</v>
       </c>
-      <c r="U240" t="inlineStr"/>
-      <c r="V240" t="inlineStr"/>
       <c r="W240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X240" t="inlineStr">
         <is>
@@ -19162,9 +18593,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V241" t="inlineStr"/>
       <c r="W241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X241" t="inlineStr">
         <is>
@@ -19242,9 +18672,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V242" t="inlineStr"/>
       <c r="W242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X242" t="inlineStr">
         <is>
@@ -19317,10 +18746,8 @@
       <c r="T243" t="n">
         <v>1.1</v>
       </c>
-      <c r="U243" t="inlineStr"/>
-      <c r="V243" t="inlineStr"/>
       <c r="W243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X243" t="inlineStr">
         <is>
@@ -19393,10 +18820,8 @@
       <c r="T244" t="n">
         <v>-27.8</v>
       </c>
-      <c r="U244" t="inlineStr"/>
-      <c r="V244" t="inlineStr"/>
       <c r="W244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X244" t="inlineStr">
         <is>
@@ -19469,10 +18894,8 @@
       <c r="T245" t="n">
         <v>-7.3</v>
       </c>
-      <c r="U245" t="inlineStr"/>
-      <c r="V245" t="inlineStr"/>
       <c r="W245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X245" t="inlineStr">
         <is>
@@ -19545,10 +18968,8 @@
       <c r="T246" t="n">
         <v>2</v>
       </c>
-      <c r="U246" t="inlineStr"/>
-      <c r="V246" t="inlineStr"/>
       <c r="W246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X246" t="inlineStr">
         <is>
@@ -19626,9 +19047,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V247" t="inlineStr"/>
       <c r="W247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X247" t="inlineStr">
         <is>
@@ -19706,9 +19126,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V248" t="inlineStr"/>
       <c r="W248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X248" t="inlineStr">
         <is>
@@ -19781,10 +19200,8 @@
       <c r="T249" t="n">
         <v>13.5</v>
       </c>
-      <c r="U249" t="inlineStr"/>
-      <c r="V249" t="inlineStr"/>
       <c r="W249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X249" t="inlineStr">
         <is>
@@ -19857,10 +19274,8 @@
       <c r="T250" t="n">
         <v>-17.9</v>
       </c>
-      <c r="U250" t="inlineStr"/>
-      <c r="V250" t="inlineStr"/>
       <c r="W250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X250" t="inlineStr">
         <is>
@@ -19938,9 +19353,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V251" t="inlineStr"/>
       <c r="W251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X251" t="inlineStr">
         <is>
@@ -20013,10 +19427,8 @@
       <c r="T252" t="n">
         <v>-1</v>
       </c>
-      <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
       <c r="W252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X252" t="inlineStr">
         <is>
@@ -20098,7 +19510,7 @@
         <v>1</v>
       </c>
       <c r="W253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X253" t="inlineStr">
         <is>
@@ -20176,9 +19588,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V254" t="inlineStr"/>
       <c r="W254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X254" t="inlineStr">
         <is>
@@ -20251,10 +19662,8 @@
       <c r="T255" t="n">
         <v>-6.6</v>
       </c>
-      <c r="U255" t="inlineStr"/>
-      <c r="V255" t="inlineStr"/>
       <c r="W255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X255" t="inlineStr">
         <is>
@@ -20327,10 +19736,8 @@
       <c r="T256" t="n">
         <v>-29.3</v>
       </c>
-      <c r="U256" t="inlineStr"/>
-      <c r="V256" t="inlineStr"/>
       <c r="W256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X256" t="inlineStr">
         <is>
@@ -20347,7 +19754,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -20376,37 +19783,8 @@
       <c r="K257" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L257" t="n">
-        <v>-26.3</v>
-      </c>
-      <c r="M257" t="n">
-        <v>29</v>
-      </c>
-      <c r="N257" t="n">
-        <v>-10</v>
-      </c>
-      <c r="O257" t="n">
-        <v>23</v>
-      </c>
-      <c r="P257" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q257" t="n">
-        <v>22</v>
-      </c>
-      <c r="R257" t="n">
-        <v>-12</v>
-      </c>
-      <c r="S257" t="n">
-        <v>32</v>
-      </c>
-      <c r="T257" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="U257" t="inlineStr"/>
-      <c r="V257" t="inlineStr"/>
       <c r="W257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X257" t="inlineStr">
         <is>
@@ -20479,10 +19857,8 @@
       <c r="T258" t="n">
         <v>-18.9</v>
       </c>
-      <c r="U258" t="inlineStr"/>
-      <c r="V258" t="inlineStr"/>
       <c r="W258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X258" t="inlineStr">
         <is>
@@ -20560,9 +19936,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V259" t="inlineStr"/>
       <c r="W259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X259" t="inlineStr">
         <is>
@@ -20644,7 +20019,7 @@
         <v>1</v>
       </c>
       <c r="W260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X260" t="inlineStr">
         <is>
@@ -20717,10 +20092,8 @@
       <c r="T261" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="U261" t="inlineStr"/>
-      <c r="V261" t="inlineStr"/>
       <c r="W261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X261" t="inlineStr">
         <is>
@@ -20793,10 +20166,8 @@
       <c r="T262" t="n">
         <v>-2.4</v>
       </c>
-      <c r="U262" t="inlineStr"/>
-      <c r="V262" t="inlineStr"/>
       <c r="W262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X262" t="inlineStr">
         <is>
@@ -20869,10 +20240,8 @@
       <c r="T263" t="n">
         <v>1.8</v>
       </c>
-      <c r="U263" t="inlineStr"/>
-      <c r="V263" t="inlineStr"/>
       <c r="W263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X263" t="inlineStr">
         <is>
@@ -20950,9 +20319,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V264" t="inlineStr"/>
       <c r="W264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X264" t="inlineStr">
         <is>
@@ -21025,10 +20393,8 @@
       <c r="T265" t="n">
         <v>-12.9</v>
       </c>
-      <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
       <c r="W265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X265" t="inlineStr">
         <is>
@@ -21101,10 +20467,8 @@
       <c r="T266" t="n">
         <v>4.4</v>
       </c>
-      <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
       <c r="W266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X266" t="inlineStr">
         <is>
@@ -21182,9 +20546,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V267" t="inlineStr"/>
       <c r="W267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X267" t="inlineStr">
         <is>
@@ -21257,10 +20620,8 @@
       <c r="T268" t="n">
         <v>11.6</v>
       </c>
-      <c r="U268" t="inlineStr"/>
-      <c r="V268" t="inlineStr"/>
       <c r="W268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X268" t="inlineStr">
         <is>
@@ -21338,9 +20699,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V269" t="inlineStr"/>
       <c r="W269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X269" t="inlineStr">
         <is>
@@ -21418,9 +20778,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V270" t="inlineStr"/>
       <c r="W270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X270" t="inlineStr">
         <is>
@@ -21498,9 +20857,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V271" t="inlineStr"/>
       <c r="W271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X271" t="inlineStr">
         <is>
@@ -21573,10 +20931,8 @@
       <c r="T272" t="n">
         <v>-16.6</v>
       </c>
-      <c r="U272" t="inlineStr"/>
-      <c r="V272" t="inlineStr"/>
       <c r="W272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X272" t="inlineStr">
         <is>
@@ -21649,10 +21005,8 @@
       <c r="T273" t="n">
         <v>-15.7</v>
       </c>
-      <c r="U273" t="inlineStr"/>
-      <c r="V273" t="inlineStr"/>
       <c r="W273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X273" t="inlineStr">
         <is>
@@ -21725,10 +21079,8 @@
       <c r="T274" t="n">
         <v>0.6</v>
       </c>
-      <c r="U274" t="inlineStr"/>
-      <c r="V274" t="inlineStr"/>
       <c r="W274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X274" t="inlineStr">
         <is>
@@ -21801,10 +21153,8 @@
       <c r="T275" t="n">
         <v>-35.5</v>
       </c>
-      <c r="U275" t="inlineStr"/>
-      <c r="V275" t="inlineStr"/>
       <c r="W275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X275" t="inlineStr">
         <is>
@@ -21877,10 +21227,8 @@
       <c r="T276" t="n">
         <v>-6.8</v>
       </c>
-      <c r="U276" t="inlineStr"/>
-      <c r="V276" t="inlineStr"/>
       <c r="W276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X276" t="inlineStr">
         <is>
@@ -21953,10 +21301,8 @@
       <c r="T277" t="n">
         <v>-0.4</v>
       </c>
-      <c r="U277" t="inlineStr"/>
-      <c r="V277" t="inlineStr"/>
       <c r="W277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X277" t="inlineStr">
         <is>
@@ -22034,9 +21380,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V278" t="inlineStr"/>
       <c r="W278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X278" t="inlineStr">
         <is>
@@ -22109,10 +21454,8 @@
       <c r="T279" t="n">
         <v>23.3</v>
       </c>
-      <c r="U279" t="inlineStr"/>
-      <c r="V279" t="inlineStr"/>
       <c r="W279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X279" t="inlineStr">
         <is>
@@ -22190,9 +21533,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V280" t="inlineStr"/>
       <c r="W280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X280" t="inlineStr">
         <is>
@@ -22265,10 +21607,8 @@
       <c r="T281" t="n">
         <v>9</v>
       </c>
-      <c r="U281" t="inlineStr"/>
-      <c r="V281" t="inlineStr"/>
       <c r="W281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X281" t="inlineStr">
         <is>
@@ -22341,10 +21681,8 @@
       <c r="T282" t="n">
         <v>14.2</v>
       </c>
-      <c r="U282" t="inlineStr"/>
-      <c r="V282" t="inlineStr"/>
       <c r="W282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X282" t="inlineStr">
         <is>
@@ -22417,10 +21755,8 @@
       <c r="T283" t="n">
         <v>14.1</v>
       </c>
-      <c r="U283" t="inlineStr"/>
-      <c r="V283" t="inlineStr"/>
       <c r="W283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X283" t="inlineStr">
         <is>
@@ -22493,10 +21829,8 @@
       <c r="T284" t="n">
         <v>23.7</v>
       </c>
-      <c r="U284" t="inlineStr"/>
-      <c r="V284" t="inlineStr"/>
       <c r="W284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X284" t="inlineStr">
         <is>
@@ -22574,9 +21908,8 @@
           <t>WC</t>
         </is>
       </c>
-      <c r="V285" t="inlineStr"/>
       <c r="W285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X285" t="inlineStr">
         <is>
@@ -22654,9 +21987,8 @@
           <t>DW</t>
         </is>
       </c>
-      <c r="V286" t="inlineStr"/>
       <c r="W286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X286" t="inlineStr">
         <is>
@@ -22729,10 +22061,8 @@
       <c r="T287" t="n">
         <v>-25</v>
       </c>
-      <c r="U287" t="inlineStr"/>
-      <c r="V287" t="inlineStr"/>
       <c r="W287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X287" t="inlineStr">
         <is>
@@ -22805,10 +22135,8 @@
       <c r="T288" t="n">
         <v>7.2</v>
       </c>
-      <c r="U288" t="inlineStr"/>
-      <c r="V288" t="inlineStr"/>
       <c r="W288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X288" t="inlineStr">
         <is>
@@ -22825,7 +22153,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -22854,41 +22182,13 @@
       <c r="K289" t="n">
         <v>0.4</v>
       </c>
-      <c r="L289" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="M289" t="n">
-        <v>9</v>
-      </c>
-      <c r="N289" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="O289" t="n">
-        <v>6</v>
-      </c>
-      <c r="P289" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q289" t="n">
-        <v>17</v>
-      </c>
-      <c r="R289" t="n">
-        <v>-4</v>
-      </c>
-      <c r="S289" t="n">
-        <v>27</v>
-      </c>
-      <c r="T289" t="n">
-        <v>-5.9</v>
-      </c>
       <c r="U289" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V289" t="inlineStr"/>
       <c r="W289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X289" t="inlineStr">
         <is>
@@ -22934,19 +22234,8 @@
       <c r="K290" t="n">
         <v>0</v>
       </c>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="inlineStr"/>
-      <c r="N290" t="inlineStr"/>
-      <c r="O290" t="inlineStr"/>
-      <c r="P290" t="inlineStr"/>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr"/>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
-      <c r="U290" t="inlineStr"/>
-      <c r="V290" t="inlineStr"/>
       <c r="W290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X290" t="inlineStr">
         <is>
@@ -22992,23 +22281,13 @@
       <c r="K291" t="n">
         <v>0.3</v>
       </c>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="inlineStr"/>
-      <c r="N291" t="inlineStr"/>
-      <c r="O291" t="inlineStr"/>
-      <c r="P291" t="inlineStr"/>
-      <c r="Q291" t="inlineStr"/>
-      <c r="R291" t="inlineStr"/>
-      <c r="S291" t="inlineStr"/>
-      <c r="T291" t="inlineStr"/>
       <c r="U291" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V291" t="inlineStr"/>
       <c r="W291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X291" t="inlineStr">
         <is>
@@ -23054,23 +22333,13 @@
       <c r="K292" t="n">
         <v>-0.9</v>
       </c>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
-      <c r="N292" t="inlineStr"/>
-      <c r="O292" t="inlineStr"/>
-      <c r="P292" t="inlineStr"/>
-      <c r="Q292" t="inlineStr"/>
-      <c r="R292" t="inlineStr"/>
-      <c r="S292" t="inlineStr"/>
-      <c r="T292" t="inlineStr"/>
       <c r="U292" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V292" t="inlineStr"/>
       <c r="W292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X292" t="inlineStr">
         <is>
@@ -23116,19 +22385,8 @@
       <c r="K293" t="n">
         <v>0.5</v>
       </c>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="inlineStr"/>
-      <c r="N293" t="inlineStr"/>
-      <c r="O293" t="inlineStr"/>
-      <c r="P293" t="inlineStr"/>
-      <c r="Q293" t="inlineStr"/>
-      <c r="R293" t="inlineStr"/>
-      <c r="S293" t="inlineStr"/>
-      <c r="T293" t="inlineStr"/>
-      <c r="U293" t="inlineStr"/>
-      <c r="V293" t="inlineStr"/>
       <c r="W293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X293" t="inlineStr">
         <is>
@@ -23174,19 +22432,8 @@
       <c r="K294" t="n">
         <v>0.1</v>
       </c>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="inlineStr"/>
-      <c r="N294" t="inlineStr"/>
-      <c r="O294" t="inlineStr"/>
-      <c r="P294" t="inlineStr"/>
-      <c r="Q294" t="inlineStr"/>
-      <c r="R294" t="inlineStr"/>
-      <c r="S294" t="inlineStr"/>
-      <c r="T294" t="inlineStr"/>
-      <c r="U294" t="inlineStr"/>
-      <c r="V294" t="inlineStr"/>
       <c r="W294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X294" t="inlineStr">
         <is>
@@ -23232,19 +22479,8 @@
       <c r="K295" t="n">
         <v>0.9</v>
       </c>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="inlineStr"/>
-      <c r="N295" t="inlineStr"/>
-      <c r="O295" t="inlineStr"/>
-      <c r="P295" t="inlineStr"/>
-      <c r="Q295" t="inlineStr"/>
-      <c r="R295" t="inlineStr"/>
-      <c r="S295" t="inlineStr"/>
-      <c r="T295" t="inlineStr"/>
-      <c r="U295" t="inlineStr"/>
-      <c r="V295" t="inlineStr"/>
       <c r="W295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X295" t="inlineStr">
         <is>
@@ -23290,23 +22526,13 @@
       <c r="K296" t="n">
         <v>-0.9</v>
       </c>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="inlineStr"/>
-      <c r="N296" t="inlineStr"/>
-      <c r="O296" t="inlineStr"/>
-      <c r="P296" t="inlineStr"/>
-      <c r="Q296" t="inlineStr"/>
-      <c r="R296" t="inlineStr"/>
-      <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
       <c r="U296" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V296" t="inlineStr"/>
       <c r="W296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X296" t="inlineStr">
         <is>
@@ -23352,19 +22578,8 @@
       <c r="K297" t="n">
         <v>0.2</v>
       </c>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="inlineStr"/>
-      <c r="N297" t="inlineStr"/>
-      <c r="O297" t="inlineStr"/>
-      <c r="P297" t="inlineStr"/>
-      <c r="Q297" t="inlineStr"/>
-      <c r="R297" t="inlineStr"/>
-      <c r="S297" t="inlineStr"/>
-      <c r="T297" t="inlineStr"/>
-      <c r="U297" t="inlineStr"/>
-      <c r="V297" t="inlineStr"/>
       <c r="W297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X297" t="inlineStr">
         <is>
@@ -23410,19 +22625,8 @@
       <c r="K298" t="n">
         <v>0.3</v>
       </c>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="inlineStr"/>
-      <c r="N298" t="inlineStr"/>
-      <c r="O298" t="inlineStr"/>
-      <c r="P298" t="inlineStr"/>
-      <c r="Q298" t="inlineStr"/>
-      <c r="R298" t="inlineStr"/>
-      <c r="S298" t="inlineStr"/>
-      <c r="T298" t="inlineStr"/>
-      <c r="U298" t="inlineStr"/>
-      <c r="V298" t="inlineStr"/>
       <c r="W298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X298" t="inlineStr">
         <is>
@@ -23468,23 +22672,13 @@
       <c r="K299" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="inlineStr"/>
-      <c r="N299" t="inlineStr"/>
-      <c r="O299" t="inlineStr"/>
-      <c r="P299" t="inlineStr"/>
-      <c r="Q299" t="inlineStr"/>
-      <c r="R299" t="inlineStr"/>
-      <c r="S299" t="inlineStr"/>
-      <c r="T299" t="inlineStr"/>
       <c r="U299" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V299" t="inlineStr"/>
       <c r="W299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X299" t="inlineStr">
         <is>
@@ -23530,23 +22724,13 @@
       <c r="K300" t="n">
         <v>0.6</v>
       </c>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="inlineStr"/>
-      <c r="N300" t="inlineStr"/>
-      <c r="O300" t="inlineStr"/>
-      <c r="P300" t="inlineStr"/>
-      <c r="Q300" t="inlineStr"/>
-      <c r="R300" t="inlineStr"/>
-      <c r="S300" t="inlineStr"/>
-      <c r="T300" t="inlineStr"/>
       <c r="U300" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V300" t="inlineStr"/>
       <c r="W300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X300" t="inlineStr">
         <is>
@@ -23592,23 +22776,13 @@
       <c r="K301" t="n">
         <v>-1.2</v>
       </c>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="inlineStr"/>
-      <c r="N301" t="inlineStr"/>
-      <c r="O301" t="inlineStr"/>
-      <c r="P301" t="inlineStr"/>
-      <c r="Q301" t="inlineStr"/>
-      <c r="R301" t="inlineStr"/>
-      <c r="S301" t="inlineStr"/>
-      <c r="T301" t="inlineStr"/>
       <c r="U301" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V301" t="inlineStr"/>
       <c r="W301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X301" t="inlineStr">
         <is>
@@ -23654,23 +22828,13 @@
       <c r="K302" t="n">
         <v>-1.9</v>
       </c>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="inlineStr"/>
-      <c r="N302" t="inlineStr"/>
-      <c r="O302" t="inlineStr"/>
-      <c r="P302" t="inlineStr"/>
-      <c r="Q302" t="inlineStr"/>
-      <c r="R302" t="inlineStr"/>
-      <c r="S302" t="inlineStr"/>
-      <c r="T302" t="inlineStr"/>
       <c r="U302" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V302" t="inlineStr"/>
       <c r="W302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X302" t="inlineStr">
         <is>
@@ -23716,19 +22880,8 @@
       <c r="K303" t="n">
         <v>0.4</v>
       </c>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="inlineStr"/>
-      <c r="N303" t="inlineStr"/>
-      <c r="O303" t="inlineStr"/>
-      <c r="P303" t="inlineStr"/>
-      <c r="Q303" t="inlineStr"/>
-      <c r="R303" t="inlineStr"/>
-      <c r="S303" t="inlineStr"/>
-      <c r="T303" t="inlineStr"/>
-      <c r="U303" t="inlineStr"/>
-      <c r="V303" t="inlineStr"/>
       <c r="W303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X303" t="inlineStr">
         <is>
@@ -23774,19 +22927,8 @@
       <c r="K304" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
-      <c r="N304" t="inlineStr"/>
-      <c r="O304" t="inlineStr"/>
-      <c r="P304" t="inlineStr"/>
-      <c r="Q304" t="inlineStr"/>
-      <c r="R304" t="inlineStr"/>
-      <c r="S304" t="inlineStr"/>
-      <c r="T304" t="inlineStr"/>
-      <c r="U304" t="inlineStr"/>
-      <c r="V304" t="inlineStr"/>
       <c r="W304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X304" t="inlineStr">
         <is>
@@ -23832,19 +22974,8 @@
       <c r="K305" t="n">
         <v>-0.2</v>
       </c>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="inlineStr"/>
-      <c r="N305" t="inlineStr"/>
-      <c r="O305" t="inlineStr"/>
-      <c r="P305" t="inlineStr"/>
-      <c r="Q305" t="inlineStr"/>
-      <c r="R305" t="inlineStr"/>
-      <c r="S305" t="inlineStr"/>
-      <c r="T305" t="inlineStr"/>
-      <c r="U305" t="inlineStr"/>
-      <c r="V305" t="inlineStr"/>
       <c r="W305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X305" t="inlineStr">
         <is>
@@ -23890,19 +23021,8 @@
       <c r="K306" t="n">
         <v>-0.9</v>
       </c>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
-      <c r="N306" t="inlineStr"/>
-      <c r="O306" t="inlineStr"/>
-      <c r="P306" t="inlineStr"/>
-      <c r="Q306" t="inlineStr"/>
-      <c r="R306" t="inlineStr"/>
-      <c r="S306" t="inlineStr"/>
-      <c r="T306" t="inlineStr"/>
-      <c r="U306" t="inlineStr"/>
-      <c r="V306" t="inlineStr"/>
       <c r="W306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X306" t="inlineStr">
         <is>
@@ -23948,19 +23068,8 @@
       <c r="K307" t="n">
         <v>2.9</v>
       </c>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
-      <c r="N307" t="inlineStr"/>
-      <c r="O307" t="inlineStr"/>
-      <c r="P307" t="inlineStr"/>
-      <c r="Q307" t="inlineStr"/>
-      <c r="R307" t="inlineStr"/>
-      <c r="S307" t="inlineStr"/>
-      <c r="T307" t="inlineStr"/>
-      <c r="U307" t="inlineStr"/>
-      <c r="V307" t="inlineStr"/>
       <c r="W307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X307" t="inlineStr">
         <is>
@@ -24006,19 +23115,8 @@
       <c r="K308" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="inlineStr"/>
-      <c r="N308" t="inlineStr"/>
-      <c r="O308" t="inlineStr"/>
-      <c r="P308" t="inlineStr"/>
-      <c r="Q308" t="inlineStr"/>
-      <c r="R308" t="inlineStr"/>
-      <c r="S308" t="inlineStr"/>
-      <c r="T308" t="inlineStr"/>
-      <c r="U308" t="inlineStr"/>
-      <c r="V308" t="inlineStr"/>
       <c r="W308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X308" t="inlineStr">
         <is>
@@ -24064,19 +23162,8 @@
       <c r="K309" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="inlineStr"/>
-      <c r="N309" t="inlineStr"/>
-      <c r="O309" t="inlineStr"/>
-      <c r="P309" t="inlineStr"/>
-      <c r="Q309" t="inlineStr"/>
-      <c r="R309" t="inlineStr"/>
-      <c r="S309" t="inlineStr"/>
-      <c r="T309" t="inlineStr"/>
-      <c r="U309" t="inlineStr"/>
-      <c r="V309" t="inlineStr"/>
       <c r="W309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X309" t="inlineStr">
         <is>
@@ -24122,19 +23209,8 @@
       <c r="K310" t="n">
         <v>1.1</v>
       </c>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr"/>
-      <c r="O310" t="inlineStr"/>
-      <c r="P310" t="inlineStr"/>
-      <c r="Q310" t="inlineStr"/>
-      <c r="R310" t="inlineStr"/>
-      <c r="S310" t="inlineStr"/>
-      <c r="T310" t="inlineStr"/>
-      <c r="U310" t="inlineStr"/>
-      <c r="V310" t="inlineStr"/>
       <c r="W310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X310" t="inlineStr">
         <is>
@@ -24180,23 +23256,13 @@
       <c r="K311" t="n">
         <v>-1.6</v>
       </c>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="inlineStr"/>
-      <c r="N311" t="inlineStr"/>
-      <c r="O311" t="inlineStr"/>
-      <c r="P311" t="inlineStr"/>
-      <c r="Q311" t="inlineStr"/>
-      <c r="R311" t="inlineStr"/>
-      <c r="S311" t="inlineStr"/>
-      <c r="T311" t="inlineStr"/>
       <c r="U311" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V311" t="inlineStr"/>
       <c r="W311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X311" t="inlineStr">
         <is>
@@ -24242,23 +23308,13 @@
       <c r="K312" t="n">
         <v>-1.4</v>
       </c>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
-      <c r="O312" t="inlineStr"/>
-      <c r="P312" t="inlineStr"/>
-      <c r="Q312" t="inlineStr"/>
-      <c r="R312" t="inlineStr"/>
-      <c r="S312" t="inlineStr"/>
-      <c r="T312" t="inlineStr"/>
       <c r="U312" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V312" t="inlineStr"/>
       <c r="W312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X312" t="inlineStr">
         <is>
@@ -24304,15 +23360,6 @@
       <c r="K313" t="n">
         <v>2</v>
       </c>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="inlineStr"/>
-      <c r="N313" t="inlineStr"/>
-      <c r="O313" t="inlineStr"/>
-      <c r="P313" t="inlineStr"/>
-      <c r="Q313" t="inlineStr"/>
-      <c r="R313" t="inlineStr"/>
-      <c r="S313" t="inlineStr"/>
-      <c r="T313" t="inlineStr"/>
       <c r="U313" t="inlineStr">
         <is>
           <t>DW</t>
@@ -24322,7 +23369,7 @@
         <v>1</v>
       </c>
       <c r="W313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X313" t="inlineStr">
         <is>
@@ -24368,19 +23415,8 @@
       <c r="K314" t="n">
         <v>0</v>
       </c>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="inlineStr"/>
-      <c r="N314" t="inlineStr"/>
-      <c r="O314" t="inlineStr"/>
-      <c r="P314" t="inlineStr"/>
-      <c r="Q314" t="inlineStr"/>
-      <c r="R314" t="inlineStr"/>
-      <c r="S314" t="inlineStr"/>
-      <c r="T314" t="inlineStr"/>
-      <c r="U314" t="inlineStr"/>
-      <c r="V314" t="inlineStr"/>
       <c r="W314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X314" t="inlineStr">
         <is>
@@ -24426,19 +23462,8 @@
       <c r="K315" t="n">
         <v>0.5</v>
       </c>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="inlineStr"/>
-      <c r="N315" t="inlineStr"/>
-      <c r="O315" t="inlineStr"/>
-      <c r="P315" t="inlineStr"/>
-      <c r="Q315" t="inlineStr"/>
-      <c r="R315" t="inlineStr"/>
-      <c r="S315" t="inlineStr"/>
-      <c r="T315" t="inlineStr"/>
-      <c r="U315" t="inlineStr"/>
-      <c r="V315" t="inlineStr"/>
       <c r="W315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X315" t="inlineStr">
         <is>
@@ -24484,23 +23509,13 @@
       <c r="K316" t="n">
         <v>-0.8</v>
       </c>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="inlineStr"/>
-      <c r="N316" t="inlineStr"/>
-      <c r="O316" t="inlineStr"/>
-      <c r="P316" t="inlineStr"/>
-      <c r="Q316" t="inlineStr"/>
-      <c r="R316" t="inlineStr"/>
-      <c r="S316" t="inlineStr"/>
-      <c r="T316" t="inlineStr"/>
       <c r="U316" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V316" t="inlineStr"/>
       <c r="W316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X316" t="inlineStr">
         <is>
@@ -24546,19 +23561,8 @@
       <c r="K317" t="n">
         <v>0.4</v>
       </c>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="inlineStr"/>
-      <c r="N317" t="inlineStr"/>
-      <c r="O317" t="inlineStr"/>
-      <c r="P317" t="inlineStr"/>
-      <c r="Q317" t="inlineStr"/>
-      <c r="R317" t="inlineStr"/>
-      <c r="S317" t="inlineStr"/>
-      <c r="T317" t="inlineStr"/>
-      <c r="U317" t="inlineStr"/>
-      <c r="V317" t="inlineStr"/>
       <c r="W317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X317" t="inlineStr">
         <is>
@@ -24604,23 +23608,13 @@
       <c r="K318" t="n">
         <v>-1.1</v>
       </c>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr"/>
-      <c r="O318" t="inlineStr"/>
-      <c r="P318" t="inlineStr"/>
-      <c r="Q318" t="inlineStr"/>
-      <c r="R318" t="inlineStr"/>
-      <c r="S318" t="inlineStr"/>
-      <c r="T318" t="inlineStr"/>
       <c r="U318" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V318" t="inlineStr"/>
       <c r="W318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X318" t="inlineStr">
         <is>
@@ -24666,19 +23660,8 @@
       <c r="K319" t="n">
         <v>2.3</v>
       </c>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="inlineStr"/>
-      <c r="N319" t="inlineStr"/>
-      <c r="O319" t="inlineStr"/>
-      <c r="P319" t="inlineStr"/>
-      <c r="Q319" t="inlineStr"/>
-      <c r="R319" t="inlineStr"/>
-      <c r="S319" t="inlineStr"/>
-      <c r="T319" t="inlineStr"/>
-      <c r="U319" t="inlineStr"/>
-      <c r="V319" t="inlineStr"/>
       <c r="W319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X319" t="inlineStr">
         <is>
@@ -24724,19 +23707,8 @@
       <c r="K320" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="inlineStr"/>
-      <c r="N320" t="inlineStr"/>
-      <c r="O320" t="inlineStr"/>
-      <c r="P320" t="inlineStr"/>
-      <c r="Q320" t="inlineStr"/>
-      <c r="R320" t="inlineStr"/>
-      <c r="S320" t="inlineStr"/>
-      <c r="T320" t="inlineStr"/>
-      <c r="U320" t="inlineStr"/>
-      <c r="V320" t="inlineStr"/>
       <c r="W320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X320" t="inlineStr">
         <is>
@@ -24753,7 +23725,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -24782,19 +23754,8 @@
       <c r="K321" t="n">
         <v>0.8</v>
       </c>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="inlineStr"/>
-      <c r="N321" t="inlineStr"/>
-      <c r="O321" t="inlineStr"/>
-      <c r="P321" t="inlineStr"/>
-      <c r="Q321" t="inlineStr"/>
-      <c r="R321" t="inlineStr"/>
-      <c r="S321" t="inlineStr"/>
-      <c r="T321" t="inlineStr"/>
-      <c r="U321" t="inlineStr"/>
-      <c r="V321" t="inlineStr"/>
       <c r="W321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X321" t="inlineStr">
         <is>
@@ -24840,19 +23801,8 @@
       <c r="K322" t="n">
         <v>-3.6</v>
       </c>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="inlineStr"/>
-      <c r="N322" t="inlineStr"/>
-      <c r="O322" t="inlineStr"/>
-      <c r="P322" t="inlineStr"/>
-      <c r="Q322" t="inlineStr"/>
-      <c r="R322" t="inlineStr"/>
-      <c r="S322" t="inlineStr"/>
-      <c r="T322" t="inlineStr"/>
-      <c r="U322" t="inlineStr"/>
-      <c r="V322" t="inlineStr"/>
       <c r="W322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X322" t="inlineStr">
         <is>
@@ -24898,23 +23848,13 @@
       <c r="K323" t="n">
         <v>-1.8</v>
       </c>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
-      <c r="N323" t="inlineStr"/>
-      <c r="O323" t="inlineStr"/>
-      <c r="P323" t="inlineStr"/>
-      <c r="Q323" t="inlineStr"/>
-      <c r="R323" t="inlineStr"/>
-      <c r="S323" t="inlineStr"/>
-      <c r="T323" t="inlineStr"/>
       <c r="U323" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V323" t="inlineStr"/>
       <c r="W323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X323" t="inlineStr">
         <is>
@@ -24960,23 +23900,13 @@
       <c r="K324" t="n">
         <v>1</v>
       </c>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="inlineStr"/>
-      <c r="N324" t="inlineStr"/>
-      <c r="O324" t="inlineStr"/>
-      <c r="P324" t="inlineStr"/>
-      <c r="Q324" t="inlineStr"/>
-      <c r="R324" t="inlineStr"/>
-      <c r="S324" t="inlineStr"/>
-      <c r="T324" t="inlineStr"/>
       <c r="U324" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V324" t="inlineStr"/>
       <c r="W324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X324" t="inlineStr">
         <is>
@@ -25022,19 +23952,8 @@
       <c r="K325" t="n">
         <v>4.3</v>
       </c>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="inlineStr"/>
-      <c r="N325" t="inlineStr"/>
-      <c r="O325" t="inlineStr"/>
-      <c r="P325" t="inlineStr"/>
-      <c r="Q325" t="inlineStr"/>
-      <c r="R325" t="inlineStr"/>
-      <c r="S325" t="inlineStr"/>
-      <c r="T325" t="inlineStr"/>
-      <c r="U325" t="inlineStr"/>
-      <c r="V325" t="inlineStr"/>
       <c r="W325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X325" t="inlineStr">
         <is>
@@ -25080,19 +23999,8 @@
       <c r="K326" t="n">
         <v>0.1</v>
       </c>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="inlineStr"/>
-      <c r="N326" t="inlineStr"/>
-      <c r="O326" t="inlineStr"/>
-      <c r="P326" t="inlineStr"/>
-      <c r="Q326" t="inlineStr"/>
-      <c r="R326" t="inlineStr"/>
-      <c r="S326" t="inlineStr"/>
-      <c r="T326" t="inlineStr"/>
-      <c r="U326" t="inlineStr"/>
-      <c r="V326" t="inlineStr"/>
       <c r="W326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X326" t="inlineStr">
         <is>
@@ -25138,23 +24046,13 @@
       <c r="K327" t="n">
         <v>1.1</v>
       </c>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="inlineStr"/>
-      <c r="N327" t="inlineStr"/>
-      <c r="O327" t="inlineStr"/>
-      <c r="P327" t="inlineStr"/>
-      <c r="Q327" t="inlineStr"/>
-      <c r="R327" t="inlineStr"/>
-      <c r="S327" t="inlineStr"/>
-      <c r="T327" t="inlineStr"/>
       <c r="U327" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V327" t="inlineStr"/>
       <c r="W327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X327" t="inlineStr">
         <is>
@@ -25200,19 +24098,8 @@
       <c r="K328" t="n">
         <v>3.1</v>
       </c>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="inlineStr"/>
-      <c r="N328" t="inlineStr"/>
-      <c r="O328" t="inlineStr"/>
-      <c r="P328" t="inlineStr"/>
-      <c r="Q328" t="inlineStr"/>
-      <c r="R328" t="inlineStr"/>
-      <c r="S328" t="inlineStr"/>
-      <c r="T328" t="inlineStr"/>
-      <c r="U328" t="inlineStr"/>
-      <c r="V328" t="inlineStr"/>
       <c r="W328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X328" t="inlineStr">
         <is>
@@ -25258,19 +24145,8 @@
       <c r="K329" t="n">
         <v>2.3</v>
       </c>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="inlineStr"/>
-      <c r="N329" t="inlineStr"/>
-      <c r="O329" t="inlineStr"/>
-      <c r="P329" t="inlineStr"/>
-      <c r="Q329" t="inlineStr"/>
-      <c r="R329" t="inlineStr"/>
-      <c r="S329" t="inlineStr"/>
-      <c r="T329" t="inlineStr"/>
-      <c r="U329" t="inlineStr"/>
-      <c r="V329" t="inlineStr"/>
       <c r="W329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X329" t="inlineStr">
         <is>
@@ -25316,19 +24192,8 @@
       <c r="K330" t="n">
         <v>0.5</v>
       </c>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="inlineStr"/>
-      <c r="N330" t="inlineStr"/>
-      <c r="O330" t="inlineStr"/>
-      <c r="P330" t="inlineStr"/>
-      <c r="Q330" t="inlineStr"/>
-      <c r="R330" t="inlineStr"/>
-      <c r="S330" t="inlineStr"/>
-      <c r="T330" t="inlineStr"/>
-      <c r="U330" t="inlineStr"/>
-      <c r="V330" t="inlineStr"/>
       <c r="W330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X330" t="inlineStr">
         <is>
@@ -25374,19 +24239,8 @@
       <c r="K331" t="n">
         <v>-1</v>
       </c>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="inlineStr"/>
-      <c r="N331" t="inlineStr"/>
-      <c r="O331" t="inlineStr"/>
-      <c r="P331" t="inlineStr"/>
-      <c r="Q331" t="inlineStr"/>
-      <c r="R331" t="inlineStr"/>
-      <c r="S331" t="inlineStr"/>
-      <c r="T331" t="inlineStr"/>
-      <c r="U331" t="inlineStr"/>
-      <c r="V331" t="inlineStr"/>
       <c r="W331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X331" t="inlineStr">
         <is>
@@ -25432,19 +24286,8 @@
       <c r="K332" t="n">
         <v>2.3</v>
       </c>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="inlineStr"/>
-      <c r="N332" t="inlineStr"/>
-      <c r="O332" t="inlineStr"/>
-      <c r="P332" t="inlineStr"/>
-      <c r="Q332" t="inlineStr"/>
-      <c r="R332" t="inlineStr"/>
-      <c r="S332" t="inlineStr"/>
-      <c r="T332" t="inlineStr"/>
-      <c r="U332" t="inlineStr"/>
-      <c r="V332" t="inlineStr"/>
       <c r="W332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X332" t="inlineStr">
         <is>
@@ -25490,15 +24333,6 @@
       <c r="K333" t="n">
         <v>1.7</v>
       </c>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="inlineStr"/>
-      <c r="N333" t="inlineStr"/>
-      <c r="O333" t="inlineStr"/>
-      <c r="P333" t="inlineStr"/>
-      <c r="Q333" t="inlineStr"/>
-      <c r="R333" t="inlineStr"/>
-      <c r="S333" t="inlineStr"/>
-      <c r="T333" t="inlineStr"/>
       <c r="U333" t="inlineStr">
         <is>
           <t>WC</t>
@@ -25508,7 +24342,7 @@
         <v>1</v>
       </c>
       <c r="W333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X333" t="inlineStr">
         <is>
@@ -25554,19 +24388,8 @@
       <c r="K334" t="n">
         <v>0.5</v>
       </c>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="inlineStr"/>
-      <c r="N334" t="inlineStr"/>
-      <c r="O334" t="inlineStr"/>
-      <c r="P334" t="inlineStr"/>
-      <c r="Q334" t="inlineStr"/>
-      <c r="R334" t="inlineStr"/>
-      <c r="S334" t="inlineStr"/>
-      <c r="T334" t="inlineStr"/>
-      <c r="U334" t="inlineStr"/>
-      <c r="V334" t="inlineStr"/>
       <c r="W334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X334" t="inlineStr">
         <is>
@@ -25612,23 +24435,13 @@
       <c r="K335" t="n">
         <v>-0.1</v>
       </c>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="inlineStr"/>
-      <c r="N335" t="inlineStr"/>
-      <c r="O335" t="inlineStr"/>
-      <c r="P335" t="inlineStr"/>
-      <c r="Q335" t="inlineStr"/>
-      <c r="R335" t="inlineStr"/>
-      <c r="S335" t="inlineStr"/>
-      <c r="T335" t="inlineStr"/>
       <c r="U335" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V335" t="inlineStr"/>
       <c r="W335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X335" t="inlineStr">
         <is>
@@ -25674,19 +24487,8 @@
       <c r="K336" t="n">
         <v>-0.4</v>
       </c>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="inlineStr"/>
-      <c r="N336" t="inlineStr"/>
-      <c r="O336" t="inlineStr"/>
-      <c r="P336" t="inlineStr"/>
-      <c r="Q336" t="inlineStr"/>
-      <c r="R336" t="inlineStr"/>
-      <c r="S336" t="inlineStr"/>
-      <c r="T336" t="inlineStr"/>
-      <c r="U336" t="inlineStr"/>
-      <c r="V336" t="inlineStr"/>
       <c r="W336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X336" t="inlineStr">
         <is>
@@ -25732,23 +24534,13 @@
       <c r="K337" t="n">
         <v>-3.2</v>
       </c>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="inlineStr"/>
-      <c r="N337" t="inlineStr"/>
-      <c r="O337" t="inlineStr"/>
-      <c r="P337" t="inlineStr"/>
-      <c r="Q337" t="inlineStr"/>
-      <c r="R337" t="inlineStr"/>
-      <c r="S337" t="inlineStr"/>
-      <c r="T337" t="inlineStr"/>
       <c r="U337" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V337" t="inlineStr"/>
       <c r="W337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X337" t="inlineStr">
         <is>
@@ -25794,19 +24586,8 @@
       <c r="K338" t="n">
         <v>-2.6</v>
       </c>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="inlineStr"/>
-      <c r="N338" t="inlineStr"/>
-      <c r="O338" t="inlineStr"/>
-      <c r="P338" t="inlineStr"/>
-      <c r="Q338" t="inlineStr"/>
-      <c r="R338" t="inlineStr"/>
-      <c r="S338" t="inlineStr"/>
-      <c r="T338" t="inlineStr"/>
-      <c r="U338" t="inlineStr"/>
-      <c r="V338" t="inlineStr"/>
       <c r="W338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X338" t="inlineStr">
         <is>
@@ -25852,19 +24633,8 @@
       <c r="K339" t="n">
         <v>-4.2</v>
       </c>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="inlineStr"/>
-      <c r="N339" t="inlineStr"/>
-      <c r="O339" t="inlineStr"/>
-      <c r="P339" t="inlineStr"/>
-      <c r="Q339" t="inlineStr"/>
-      <c r="R339" t="inlineStr"/>
-      <c r="S339" t="inlineStr"/>
-      <c r="T339" t="inlineStr"/>
-      <c r="U339" t="inlineStr"/>
-      <c r="V339" t="inlineStr"/>
       <c r="W339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X339" t="inlineStr">
         <is>
@@ -25910,19 +24680,8 @@
       <c r="K340" t="n">
         <v>-2.3</v>
       </c>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
-      <c r="N340" t="inlineStr"/>
-      <c r="O340" t="inlineStr"/>
-      <c r="P340" t="inlineStr"/>
-      <c r="Q340" t="inlineStr"/>
-      <c r="R340" t="inlineStr"/>
-      <c r="S340" t="inlineStr"/>
-      <c r="T340" t="inlineStr"/>
-      <c r="U340" t="inlineStr"/>
-      <c r="V340" t="inlineStr"/>
       <c r="W340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X340" t="inlineStr">
         <is>
@@ -25968,19 +24727,8 @@
       <c r="K341" t="n">
         <v>4.1</v>
       </c>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="inlineStr"/>
-      <c r="N341" t="inlineStr"/>
-      <c r="O341" t="inlineStr"/>
-      <c r="P341" t="inlineStr"/>
-      <c r="Q341" t="inlineStr"/>
-      <c r="R341" t="inlineStr"/>
-      <c r="S341" t="inlineStr"/>
-      <c r="T341" t="inlineStr"/>
-      <c r="U341" t="inlineStr"/>
-      <c r="V341" t="inlineStr"/>
       <c r="W341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X341" t="inlineStr">
         <is>
@@ -26026,19 +24774,8 @@
       <c r="K342" t="n">
         <v>2.6</v>
       </c>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="inlineStr"/>
-      <c r="N342" t="inlineStr"/>
-      <c r="O342" t="inlineStr"/>
-      <c r="P342" t="inlineStr"/>
-      <c r="Q342" t="inlineStr"/>
-      <c r="R342" t="inlineStr"/>
-      <c r="S342" t="inlineStr"/>
-      <c r="T342" t="inlineStr"/>
-      <c r="U342" t="inlineStr"/>
-      <c r="V342" t="inlineStr"/>
       <c r="W342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X342" t="inlineStr">
         <is>
@@ -26084,23 +24821,13 @@
       <c r="K343" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="inlineStr"/>
-      <c r="N343" t="inlineStr"/>
-      <c r="O343" t="inlineStr"/>
-      <c r="P343" t="inlineStr"/>
-      <c r="Q343" t="inlineStr"/>
-      <c r="R343" t="inlineStr"/>
-      <c r="S343" t="inlineStr"/>
-      <c r="T343" t="inlineStr"/>
       <c r="U343" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V343" t="inlineStr"/>
       <c r="W343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X343" t="inlineStr">
         <is>
@@ -26146,23 +24873,13 @@
       <c r="K344" t="n">
         <v>2.6</v>
       </c>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="inlineStr"/>
-      <c r="N344" t="inlineStr"/>
-      <c r="O344" t="inlineStr"/>
-      <c r="P344" t="inlineStr"/>
-      <c r="Q344" t="inlineStr"/>
-      <c r="R344" t="inlineStr"/>
-      <c r="S344" t="inlineStr"/>
-      <c r="T344" t="inlineStr"/>
       <c r="U344" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V344" t="inlineStr"/>
       <c r="W344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X344" t="inlineStr">
         <is>
@@ -26208,19 +24925,8 @@
       <c r="K345" t="n">
         <v>-0.8</v>
       </c>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="inlineStr"/>
-      <c r="N345" t="inlineStr"/>
-      <c r="O345" t="inlineStr"/>
-      <c r="P345" t="inlineStr"/>
-      <c r="Q345" t="inlineStr"/>
-      <c r="R345" t="inlineStr"/>
-      <c r="S345" t="inlineStr"/>
-      <c r="T345" t="inlineStr"/>
-      <c r="U345" t="inlineStr"/>
-      <c r="V345" t="inlineStr"/>
       <c r="W345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X345" t="inlineStr">
         <is>
@@ -26266,23 +24972,13 @@
       <c r="K346" t="n">
         <v>2.5</v>
       </c>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="inlineStr"/>
-      <c r="N346" t="inlineStr"/>
-      <c r="O346" t="inlineStr"/>
-      <c r="P346" t="inlineStr"/>
-      <c r="Q346" t="inlineStr"/>
-      <c r="R346" t="inlineStr"/>
-      <c r="S346" t="inlineStr"/>
-      <c r="T346" t="inlineStr"/>
       <c r="U346" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="V346" t="inlineStr"/>
       <c r="W346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X346" t="inlineStr">
         <is>
@@ -26328,23 +25024,13 @@
       <c r="K347" t="n">
         <v>0.3</v>
       </c>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="inlineStr"/>
-      <c r="N347" t="inlineStr"/>
-      <c r="O347" t="inlineStr"/>
-      <c r="P347" t="inlineStr"/>
-      <c r="Q347" t="inlineStr"/>
-      <c r="R347" t="inlineStr"/>
-      <c r="S347" t="inlineStr"/>
-      <c r="T347" t="inlineStr"/>
       <c r="U347" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V347" t="inlineStr"/>
       <c r="W347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X347" t="inlineStr">
         <is>
@@ -26390,23 +25076,13 @@
       <c r="K348" t="n">
         <v>1.3</v>
       </c>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="inlineStr"/>
-      <c r="N348" t="inlineStr"/>
-      <c r="O348" t="inlineStr"/>
-      <c r="P348" t="inlineStr"/>
-      <c r="Q348" t="inlineStr"/>
-      <c r="R348" t="inlineStr"/>
-      <c r="S348" t="inlineStr"/>
-      <c r="T348" t="inlineStr"/>
       <c r="U348" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V348" t="inlineStr"/>
       <c r="W348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X348" t="inlineStr">
         <is>
@@ -26452,23 +25128,13 @@
       <c r="K349" t="n">
         <v>-3.4</v>
       </c>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="inlineStr"/>
-      <c r="N349" t="inlineStr"/>
-      <c r="O349" t="inlineStr"/>
-      <c r="P349" t="inlineStr"/>
-      <c r="Q349" t="inlineStr"/>
-      <c r="R349" t="inlineStr"/>
-      <c r="S349" t="inlineStr"/>
-      <c r="T349" t="inlineStr"/>
       <c r="U349" t="inlineStr">
         <is>
           <t>DW</t>
         </is>
       </c>
-      <c r="V349" t="inlineStr"/>
       <c r="W349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X349" t="inlineStr">
         <is>
@@ -26514,19 +25180,8 @@
       <c r="K350" t="n">
         <v>-3.3</v>
       </c>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="inlineStr"/>
-      <c r="N350" t="inlineStr"/>
-      <c r="O350" t="inlineStr"/>
-      <c r="P350" t="inlineStr"/>
-      <c r="Q350" t="inlineStr"/>
-      <c r="R350" t="inlineStr"/>
-      <c r="S350" t="inlineStr"/>
-      <c r="T350" t="inlineStr"/>
-      <c r="U350" t="inlineStr"/>
-      <c r="V350" t="inlineStr"/>
       <c r="W350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X350" t="inlineStr">
         <is>
@@ -26572,19 +25227,8 @@
       <c r="K351" t="n">
         <v>-2</v>
       </c>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="inlineStr"/>
-      <c r="N351" t="inlineStr"/>
-      <c r="O351" t="inlineStr"/>
-      <c r="P351" t="inlineStr"/>
-      <c r="Q351" t="inlineStr"/>
-      <c r="R351" t="inlineStr"/>
-      <c r="S351" t="inlineStr"/>
-      <c r="T351" t="inlineStr"/>
-      <c r="U351" t="inlineStr"/>
-      <c r="V351" t="inlineStr"/>
       <c r="W351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X351" t="inlineStr">
         <is>
@@ -26630,19 +25274,8 @@
       <c r="K352" t="n">
         <v>0</v>
       </c>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="inlineStr"/>
-      <c r="N352" t="inlineStr"/>
-      <c r="O352" t="inlineStr"/>
-      <c r="P352" t="inlineStr"/>
-      <c r="Q352" t="inlineStr"/>
-      <c r="R352" t="inlineStr"/>
-      <c r="S352" t="inlineStr"/>
-      <c r="T352" t="inlineStr"/>
-      <c r="U352" t="inlineStr"/>
-      <c r="V352" t="inlineStr"/>
       <c r="W352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X352" t="inlineStr">
         <is>
@@ -26659,7 +25292,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>WFT</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -26688,19 +25321,8 @@
       <c r="K353" t="n">
         <v>0.9</v>
       </c>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="inlineStr"/>
-      <c r="N353" t="inlineStr"/>
-      <c r="O353" t="inlineStr"/>
-      <c r="P353" t="inlineStr"/>
-      <c r="Q353" t="inlineStr"/>
-      <c r="R353" t="inlineStr"/>
-      <c r="S353" t="inlineStr"/>
-      <c r="T353" t="inlineStr"/>
-      <c r="U353" t="inlineStr"/>
-      <c r="V353" t="inlineStr"/>
       <c r="W353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X353" t="inlineStr">
         <is>
